--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_5_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_5_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6703273515012345</v>
+        <v>0.4223512403010066</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6703273515012345</v>
+        <v>0.4223512403010066</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.569022468914908</v>
+        <v>4.42269532729915</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-5.200643644235674, 10.33868858206549]</t>
+          <t>[-4.439608803572723, 13.284999458171024]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.5088371629620521</v>
+        <v>0.3202087748901186</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5088371629620521</v>
+        <v>0.3202087748901186</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.213895123250465</v>
+        <v>-1.786210838077079</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.352343039449277, 0.9245527929483472]</t>
+          <t>[-4.9183692794939295, 1.3459476033397708]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.162276087860852</v>
+        <v>0.2567878470501963</v>
       </c>
       <c r="S2" t="n">
-        <v>0.162276087860852</v>
+        <v>0.2567878470501963</v>
       </c>
       <c r="T2" t="n">
-        <v>10.97488972671012</v>
+        <v>14.85124683973271</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.942483980074776, 15.007295473345458]</t>
+          <t>[10.018168205488465, 19.68432547397695]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.822779517990369e-06</v>
+        <v>1.635629234275626e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.822779517990369e-06</v>
+        <v>1.635629234275626e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>9.157637637637858</v>
+        <v>7.152592592592733</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.824354354354444</v>
+        <v>-5.389629629629734</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.13962962963016</v>
+        <v>19.6948148148152</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4642401458458986</v>
+        <v>0.5964868600298689</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4642401458458986</v>
+        <v>0.5964868600298689</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.575244703206649</v>
+        <v>3.851235008294919</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.240286586014844, 14.390775992428143]</t>
+          <t>[-5.956207114232749, 13.658677130822587]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3528352601208766</v>
+        <v>0.4331464220726478</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3528352601208766</v>
+        <v>0.4331464220726478</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.100684577175157</v>
+        <v>2.886868924920351</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.232843018592007, 1.0314738642416934]</t>
+          <t>[-0.23900004171453837, 6.01273789155524]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1835053624913567</v>
+        <v>0.06941377427731221</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1835053624913567</v>
+        <v>0.06941377427731221</v>
       </c>
       <c r="T3" t="n">
-        <v>14.01262005716519</v>
+        <v>14.98009383746181</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.801336881533192, 19.223903232797195]</t>
+          <t>[9.690129660441528, 20.270058014482085]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.27885432457775e-06</v>
+        <v>8.584345276840821e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.27885432457775e-06</v>
+        <v>8.584345276840821e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>8.689349349349559</v>
+        <v>13.60000000000027</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.266626626626726</v>
+        <v>1.082962962962984</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.64532532532584</v>
+        <v>26.11703703703755</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006732777411002866</v>
+        <v>0.1217080612877719</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006732777411002866</v>
+        <v>0.1217080612877719</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>10.27723552990733</v>
+        <v>7.273897311667289</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.0468002032064483, 17.507670856608218]</t>
+          <t>[-2.1025600027723534, 16.65035462610693]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.006353608478375961</v>
+        <v>0.1251846183985066</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006353608478375961</v>
+        <v>0.1251846183985066</v>
       </c>
       <c r="P4" t="n">
-        <v>3.125868966634889</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 4.056711234365198]</t>
+          <t>[-5.434106211614777, 0.5534737808126167]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.286384881422521e-08</v>
+        <v>0.1076136729251054</v>
       </c>
       <c r="S4" t="n">
-        <v>2.286384881422521e-08</v>
+        <v>0.1076136729251054</v>
       </c>
       <c r="T4" t="n">
-        <v>13.96944964951651</v>
+        <v>16.71124804867774</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.737072691580831, 18.201826607452194]</t>
+          <t>[11.84794182499669, 21.57455427235879]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.398470904691919e-08</v>
+        <v>1.335347632469563e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.398470904691919e-08</v>
+        <v>1.335347632469563e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>13.06004004004035</v>
+        <v>9.771851851852043</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.209669669669891</v>
+        <v>-2.216296296296342</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.91041041041082</v>
+        <v>21.76000000000043</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.617381360934203</v>
+        <v>0.2661205318205228</v>
       </c>
       <c r="I5" t="n">
-        <v>0.617381360934203</v>
+        <v>0.2661205318205228</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.169119849750555</v>
+        <v>6.951451267702248</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.340705895819631, 14.67894559532074]</t>
+          <t>[-4.733784067249405, 18.6366866026539]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4285046463256814</v>
+        <v>0.2371219786907606</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4285046463256814</v>
+        <v>0.2371219786907606</v>
       </c>
       <c r="P5" t="n">
-        <v>3.050395269251351</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.08805264694746207, 6.188843185450164]</t>
+          <t>[-5.515869383780277, 0.7610264486173479]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05649643024470974</v>
+        <v>0.1340795459855699</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05649643024470974</v>
+        <v>0.1340795459855699</v>
       </c>
       <c r="T5" t="n">
-        <v>13.85047605624246</v>
+        <v>15.52829964003021</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.002164310180234, 19.69878780230468]</t>
+          <t>[9.59479619290498, 21.46180308715543]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.970540543783095e-05</v>
+        <v>3.712527029353652e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.970540543783095e-05</v>
+        <v>3.712527029353652e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>13.37223223223255</v>
+        <v>9.520000000000184</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3902402402402458</v>
+        <v>-3.047407407407469</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.35422422422486</v>
+        <v>22.08740740740784</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3989302077271447</v>
+        <v>0.3068419013648915</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3989302077271447</v>
+        <v>0.3068419013648915</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.261839629395916</v>
+        <v>5.560711984506323</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.5163879949773, 13.04006725376913]</t>
+          <t>[-3.236258504564997, 14.357682473577643]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3333766223167955</v>
+        <v>0.2095033462294329</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3333766223167955</v>
+        <v>0.2095033462294329</v>
       </c>
       <c r="P6" t="n">
-        <v>2.018921405009658</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.0377633390236536, 5.075606149042969]</t>
+          <t>[-0.08805264694746207, 6.188843185450164]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1901213233283543</v>
+        <v>0.05649643024470974</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1901213233283543</v>
+        <v>0.05649643024470974</v>
       </c>
       <c r="T6" t="n">
-        <v>13.46901506770797</v>
+        <v>14.28521430121324</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.841591712397278, 18.096438423018665]</t>
+          <t>[9.302423343373144, 19.268005259053346]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.994797186963496e-07</v>
+        <v>6.746996643602898e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.994797186963496e-07</v>
+        <v>6.746996643602898e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>17.63885885885928</v>
+        <v>12.94518518518544</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.995075075075198</v>
+        <v>0.3777777777777818</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.28264264264336</v>
+        <v>25.51259259259309</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6538865637738681</v>
+        <v>0.5046369962220019</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6538865637738681</v>
+        <v>0.5046369962220019</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2.742293296002114</v>
+        <v>4.142840444777678</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.696682687676677, 10.181269279680905]</t>
+          <t>[-4.887098585447927, 13.172779475003285]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4616571813040147</v>
+        <v>0.360389312464283</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4616571813040147</v>
+        <v>0.360389312464283</v>
       </c>
       <c r="P7" t="n">
-        <v>1.616395018964118</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.50318447288881, 4.735974510817046]</t>
+          <t>[-0.19497371824080822, 6.069343164592894]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3022455250899889</v>
+        <v>0.06538390748816458</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3022455250899889</v>
+        <v>0.06538390748816458</v>
       </c>
       <c r="T7" t="n">
-        <v>13.56926636461984</v>
+        <v>14.44024535837705</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.305221444782203, 17.83331128445748]</t>
+          <t>[9.510696819315454, 19.36979389743864]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.68953702934283e-08</v>
+        <v>4.394402821628063e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>7.68953702934283e-08</v>
+        <v>4.394402821628063e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>18.2788988988992</v>
+        <v>13.32928928928954</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.060120120120217</v>
+        <v>0.8518718718718876</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.49767767767818</v>
+        <v>25.8067067067072</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3246653658541522</v>
+        <v>0.2347771966479127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3246653658541522</v>
+        <v>0.2347771966479127</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.697886311996822</v>
+        <v>5.690092781486698</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.55961044093989, 12.955383064933534]</t>
+          <t>[-3.079163905217678, 14.459349468191073]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2579055794827489</v>
+        <v>0.1978901576451961</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2579055794827489</v>
+        <v>0.1978901576451961</v>
       </c>
       <c r="P8" t="n">
-        <v>2.006342455445735</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.1258159859711157, 5.138500896862585]</t>
+          <t>[-0.5786316799404627, 5.698264152457163]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2035861298571213</v>
+        <v>0.1074019953907757</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2035861298571213</v>
+        <v>0.1074019953907757</v>
       </c>
       <c r="T8" t="n">
-        <v>14.02772296200966</v>
+        <v>14.05554119568906</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.581109797452871, 18.474336126566445]</t>
+          <t>[9.37400667635087, 18.737075715027256]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.299539005525048e-08</v>
+        <v>2.658750848372193e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>9.299539005525048e-08</v>
+        <v>2.658750848372193e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>16.75155155155183</v>
+        <v>14.83259259259287</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.483503503503577</v>
+        <v>2.33012012012016</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.01959959960008</v>
+        <v>27.33506506506559</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3981647520971225</v>
+        <v>0.1771226070754988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3981647520971225</v>
+        <v>0.1771226070754988</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.371225234287184</v>
+        <v>6.246547452384466</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-5.113489930250417, 15.855940398824785]</t>
+          <t>[-2.3474212119556297, 14.840516116724562]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3076763160817546</v>
+        <v>0.1501570904080856</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3076763160817546</v>
+        <v>0.1501570904080856</v>
       </c>
       <c r="P9" t="n">
-        <v>2.371131992799504</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.761026448617347, 5.503290434216354]</t>
+          <t>[-0.30818426431611634, 5.654237828983431]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1343236599594162</v>
+        <v>0.07762627987293391</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1343236599594162</v>
+        <v>0.07762627987293391</v>
       </c>
       <c r="T9" t="n">
-        <v>14.62435111749203</v>
+        <v>13.91284364808741</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.032086820105375, 20.21661541487869]</t>
+          <t>[9.246168273038439, 18.57951902313639]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.761923108802634e-06</v>
+        <v>3.072800065506698e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.761923108802634e-06</v>
+        <v>3.072800065506698e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>15.322742742743</v>
+        <v>14.38160160160188</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.054694694694746</v>
+        <v>2.505505505505553</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.59079079079125</v>
+        <v>26.2576976976982</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.770352355749769</v>
+        <v>0.05054397120082244</v>
       </c>
       <c r="I10" t="n">
-        <v>0.770352355749769</v>
+        <v>0.05054397120082244</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.677837855338684</v>
+        <v>7.760919992331388</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-7.242892476744155, 12.598568187421522]</t>
+          <t>[-0.7294699985186668, 16.251309983181443]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.589363147322117</v>
+        <v>0.07221145771690218</v>
       </c>
       <c r="O10" t="n">
-        <v>0.589363147322117</v>
+        <v>0.07221145771690218</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83023716155081</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, 4.9686850777496225]</t>
+          <t>[0.018868424345884982, 4.471816569974659]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2463501070892007</v>
+        <v>0.04816948331393522</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2463501070892007</v>
+        <v>0.04816948331393522</v>
       </c>
       <c r="T10" t="n">
-        <v>13.59602013646758</v>
+        <v>11.09751488413155</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.265981731051621, 18.92605854188354]</t>
+          <t>[6.66328008284932, 15.531749685413786]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.80941250349909e-06</v>
+        <v>8.032878042074643e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.80941250349909e-06</v>
+        <v>8.032878042074643e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>17.44132132132161</v>
+        <v>16.08534534534565</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.148638638638724</v>
+        <v>7.215855855855997</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.7340040040045</v>
+        <v>24.9548348348353</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.638122192910214</v>
+        <v>0.4895275894535767</v>
       </c>
       <c r="I11" t="n">
-        <v>0.638122192910214</v>
+        <v>0.4895275894535767</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3.011526635304704</v>
+        <v>4.538408009504867</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-5.22144728868975, 11.244500559299158]</t>
+          <t>[-5.710140866696143, 14.786956885705877]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.4651068735783368</v>
+        <v>0.3771837026959259</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4651068735783368</v>
+        <v>0.3771837026959259</v>
       </c>
       <c r="P11" t="n">
-        <v>1.452868674633118</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.6352634433100022, 4.541000792576238]</t>
+          <t>[-1.0817896624973864, 5.169948270772392]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.3484083620137914</v>
+        <v>0.1944829485704491</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3484083620137914</v>
+        <v>0.1944829485704491</v>
       </c>
       <c r="T11" t="n">
-        <v>11.79005748403953</v>
+        <v>13.17527163013316</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.2410824677387335, 16.339032500340316]</t>
+          <t>[7.710125533876648, 18.64041772638967]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.404741150931812e-06</v>
+        <v>1.485673553602851e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.404741150931812e-06</v>
+        <v>1.485673553602851e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>18.91939939939971</v>
+        <v>16.88710710710743</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.823793793793904</v>
+        <v>4.434744744744828</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.01500500500552</v>
+        <v>29.33946946947002</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1568411185045215</v>
+        <v>0.1194584660384148</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1568411185045215</v>
+        <v>0.1194584660384148</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.767135951259671</v>
+        <v>6.138747496983511</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.224220445023257, 15.7584923475426]</t>
+          <t>[-1.2967168582472883, 13.57421185221431]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1365463772084898</v>
+        <v>0.1032929623548693</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1365463772084898</v>
+        <v>0.1032929623548693</v>
       </c>
       <c r="P12" t="n">
-        <v>1.691868716347656</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2264475824825016, 4.610185015177814]</t>
+          <t>[-0.1698158191129604, 3.075553168379196]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2490940621823323</v>
+        <v>0.07803499052242402</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2490940621823323</v>
+        <v>0.07803499052242402</v>
       </c>
       <c r="T12" t="n">
-        <v>15.83590464941235</v>
+        <v>12.53987418312434</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.869033424789897, 20.8027758740348]</t>
+          <t>[8.3224879620157, 16.757260404232976]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.374978960861256e-08</v>
+        <v>3.2454814258287e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>7.374978960861256e-08</v>
+        <v>3.2454814258287e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>17.98328328328358</v>
+        <v>19.24228228228264</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.552812812812924</v>
+        <v>12.77807807807832</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.41375375375424</v>
+        <v>25.70648648648697</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_5_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_5_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4223512403010066</v>
+        <v>0.6939397739838514</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4223512403010066</v>
+        <v>0.6939397739838514</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.42269532729915</v>
+        <v>3.280826963757267</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.439608803572723, 13.284999458171024]</t>
+          <t>[-6.923230294991358, 13.484884222505892]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3202087748901186</v>
+        <v>0.5205481033076222</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3202087748901186</v>
+        <v>0.5205481033076222</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.786210838077079</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.9183692794939295, 1.3459476033397708]</t>
+          <t>[-5.459264110742623, 0.8050527720910781]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2567878470501963</v>
+        <v>0.1415249934463128</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2567878470501963</v>
+        <v>0.1415249934463128</v>
       </c>
       <c r="T2" t="n">
-        <v>14.85124683973271</v>
+        <v>13.11653873951597</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.018168205488465, 19.68432547397695]</t>
+          <t>[7.706881124988378, 18.526196354043563]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.635629234275626e-07</v>
+        <v>1.354467037884e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.635629234275626e-07</v>
+        <v>1.354467037884e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>7.152592592592733</v>
+        <v>9.266666666666842</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.389629629629734</v>
+        <v>-3.205765765765825</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.6948148148152</v>
+        <v>21.73909909909951</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5964868600298689</v>
+        <v>0.2369211708252796</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5964868600298689</v>
+        <v>0.2369211708252796</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.851235008294919</v>
+        <v>5.488686627576884</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.956207114232749, 13.658677130822587]</t>
+          <t>[-3.2754737572327386, 14.252847012386507]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4331464220726478</v>
+        <v>0.213678138808038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4331464220726478</v>
+        <v>0.213678138808038</v>
       </c>
       <c r="P3" t="n">
-        <v>2.886868924920351</v>
+        <v>-2.289368820634003</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.23900004171453837, 6.01273789155524]</t>
+          <t>[-5.427816736832816, 0.8490790955648091]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.06941377427731221</v>
+        <v>0.1487338324011309</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06941377427731221</v>
+        <v>0.1487338324011309</v>
       </c>
       <c r="T3" t="n">
-        <v>14.98009383746181</v>
+        <v>12.42016977374423</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.690129660441528, 20.270058014482085]</t>
+          <t>[7.91168990097172, 16.92864964651675]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.584345276840821e-07</v>
+        <v>1.453434048670488e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>8.584345276840821e-07</v>
+        <v>1.453434048670488e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>13.60000000000027</v>
+        <v>9.116396396396569</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.082962962962984</v>
+        <v>-3.381081081081145</v>
       </c>
       <c r="Z3" t="n">
-        <v>26.11703703703755</v>
+        <v>21.61387387387428</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1217080612877719</v>
+        <v>0.2013690939241529</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1217080612877719</v>
+        <v>0.2013690939241529</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.273897311667289</v>
+        <v>6.904297087744282</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.1025600027723534, 16.65035462610693]</t>
+          <t>[-2.5409355875113713, 16.349529762999936]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1251846183985066</v>
+        <v>0.1479069708018421</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1251846183985066</v>
+        <v>0.1479069708018421</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.44031621540108</v>
+        <v>3.08813211794312</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.434106211614777, 0.5534737808126167]</t>
+          <t>[0.05660527303765406, 6.119658962848586]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1076136729251054</v>
+        <v>0.04604416325891525</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1076136729251054</v>
+        <v>0.04604416325891525</v>
       </c>
       <c r="T4" t="n">
-        <v>16.71124804867774</v>
+        <v>15.52814393248676</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.84794182499669, 21.57455427235879]</t>
+          <t>[10.243946525606297, 20.812341339367215]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.335347632469563e-08</v>
+        <v>4.122834365016814e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.335347632469563e-08</v>
+        <v>4.122834365016814e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>9.771851851852043</v>
+        <v>12.72288288288312</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.216296296296342</v>
+        <v>0.6511711711711836</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.76000000000043</v>
+        <v>24.79459459459506</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2661205318205228</v>
+        <v>0.6500905111888733</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2661205318205228</v>
+        <v>0.6500905111888733</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.951451267702248</v>
+        <v>2.85139038477437</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.733784067249405, 18.6366866026539]</t>
+          <t>[-5.757522170943896, 11.460302940492635]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2371219786907606</v>
+        <v>0.508115514279543</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2371219786907606</v>
+        <v>0.508115514279543</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.377421467581465</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.515869383780277, 0.7610264486173479]</t>
+          <t>[-0.7861843477451931, 5.427816736832815]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1340795459855699</v>
+        <v>0.1394494506762118</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1340795459855699</v>
+        <v>0.1394494506762118</v>
       </c>
       <c r="T5" t="n">
-        <v>15.52829964003021</v>
+        <v>14.456658864958</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.59479619290498, 21.46180308715543]</t>
+          <t>[10.06076053168308, 18.852557198232923]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.712527029353652e-06</v>
+        <v>3.690305017123308e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.712527029353652e-06</v>
+        <v>3.690305017123308e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>9.520000000000184</v>
+        <v>15.77837837837868</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.047407407407469</v>
+        <v>3.406126126126193</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.08740740740784</v>
+        <v>28.15063063063116</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3068419013648915</v>
+        <v>0.07212059484597722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3068419013648915</v>
+        <v>0.07212059484597722</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.560711984506323</v>
+        <v>8.121425529312866</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.236258504564997, 14.357682473577643]</t>
+          <t>[-0.5753970312629022, 16.818248089888634]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2095033462294329</v>
+        <v>0.06647316841103801</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2095033462294329</v>
+        <v>0.06647316841103801</v>
       </c>
       <c r="P6" t="n">
-        <v>3.050395269251351</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.08805264694746207, 6.188843185450164]</t>
+          <t>[-4.490684994320546, -1.3207897042119252]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05649643024470974</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05649643024470974</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="T6" t="n">
-        <v>14.28521430121324</v>
+        <v>14.46852051553368</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.302423343373144, 19.268005259053346]</t>
+          <t>[9.680957680313835, 19.25608335075352]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.746996643602898e-07</v>
+        <v>2.320242449282972e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>6.746996643602898e-07</v>
+        <v>2.320242449282972e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>12.94518518518544</v>
+        <v>11.57081081081103</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3777777777777818</v>
+        <v>5.259459459459556</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.51259259259309</v>
+        <v>17.8821621621625</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5046369962220019</v>
+        <v>0.3164031514778838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5046369962220019</v>
+        <v>0.3164031514778838</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.142840444777678</v>
+        <v>5.29387813123663</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.887098585447927, 13.172779475003285]</t>
+          <t>[-4.305876486502909, 14.893632748976168]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.360389312464283</v>
+        <v>0.2725984855438754</v>
       </c>
       <c r="O7" t="n">
-        <v>0.360389312464283</v>
+        <v>0.2725984855438754</v>
       </c>
       <c r="P7" t="n">
-        <v>2.937184723176043</v>
+        <v>2.283079345852041</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.19497371824080822, 6.069343164592894]</t>
+          <t>[-0.8490790955648109, 5.415237787268893]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06538390748816458</v>
+        <v>0.1490295982325189</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06538390748816458</v>
+        <v>0.1490295982325189</v>
       </c>
       <c r="T7" t="n">
-        <v>14.44024535837705</v>
+        <v>11.93992809475654</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.510696819315454, 19.36979389743864]</t>
+          <t>[7.037562176115823, 16.842294013397254]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.394402821628063e-07</v>
+        <v>1.259504249473409e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.394402821628063e-07</v>
+        <v>1.259504249473409e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>13.32928928928954</v>
+        <v>15.17105105105124</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8518718718718876</v>
+        <v>3.291831831831869</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.8067067067072</v>
+        <v>27.0502702702706</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2347771966479127</v>
+        <v>0.1357689673433218</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2347771966479127</v>
+        <v>0.1357689673433218</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.690092781486698</v>
+        <v>7.312122414189979</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.079163905217678, 14.459349468191073]</t>
+          <t>[-2.346612047434352, 16.97085687581431]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1978901576451961</v>
+        <v>0.134313848293022</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1978901576451961</v>
+        <v>0.134313848293022</v>
       </c>
       <c r="P8" t="n">
-        <v>2.55981623625835</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 5.698264152457163]</t>
+          <t>[-2.176158274558696, 3.949790163071852]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1074019953907757</v>
+        <v>0.5627111037451913</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1074019953907757</v>
+        <v>0.5627111037451913</v>
       </c>
       <c r="T8" t="n">
-        <v>14.05554119568906</v>
+        <v>15.42374903569441</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.37400667635087, 18.737075715027256]</t>
+          <t>[10.33085785373633, 20.51664021765249]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.658750848372193e-07</v>
+        <v>2.220450263656915e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.658750848372193e-07</v>
+        <v>2.220450263656915e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>14.83259259259287</v>
+        <v>20.46660660660685</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.33012012012016</v>
+        <v>8.849779779779885</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.33506506506559</v>
+        <v>32.08343343343382</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1771226070754988</v>
+        <v>0.820855413743973</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1771226070754988</v>
+        <v>0.820855413743973</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.246547452384466</v>
+        <v>2.392775538995212</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.3474212119556297, 14.840516116724562]</t>
+          <t>[-7.830126512605632, 12.615677590596057]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1501570904080856</v>
+        <v>0.6396173208806597</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1501570904080856</v>
+        <v>0.6396173208806597</v>
       </c>
       <c r="P9" t="n">
-        <v>2.673026782333658</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.30818426431611634, 5.654237828983431]</t>
+          <t>[-1.3333686537758478, 4.91836927949393]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.07762627987293391</v>
+        <v>0.2541995405117288</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07762627987293391</v>
+        <v>0.2541995405117288</v>
       </c>
       <c r="T9" t="n">
-        <v>13.91284364808741</v>
+        <v>14.29474632312027</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.246168273038439, 18.57951902313639]</t>
+          <t>[8.906963651669098, 19.682528994571438]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.072800065506698e-07</v>
+        <v>2.905488873050643e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.072800065506698e-07</v>
+        <v>2.905488873050643e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>14.38160160160188</v>
+        <v>17.03165165165186</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.505505505505553</v>
+        <v>5.17628628628635</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.2576976976982</v>
+        <v>28.88701701701736</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05054397120082244</v>
+        <v>0.2744830257730597</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05054397120082244</v>
+        <v>0.2744830257730597</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.760919992331388</v>
+        <v>6.337781030195929</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.7294699985186668, 16.251309983181443]</t>
+          <t>[-4.194940193613206, 16.870502254005064]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07221145771690218</v>
+        <v>0.2318634935583672</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07221145771690218</v>
+        <v>0.2318634935583672</v>
       </c>
       <c r="P10" t="n">
-        <v>2.245342497160272</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.018868424345884982, 4.471816569974659]</t>
+          <t>[-0.8302106712189241, 5.446685161178699]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.04816948331393522</v>
+        <v>0.1454915396357439</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04816948331393522</v>
+        <v>0.1454915396357439</v>
       </c>
       <c r="T10" t="n">
-        <v>11.09751488413155</v>
+        <v>11.54975692543859</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.66328008284932, 15.531749685413786]</t>
+          <t>[6.026692086916997, 17.072821763960192]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.032878042074643e-06</v>
+        <v>0.0001198925436045606</v>
       </c>
       <c r="W10" t="n">
-        <v>8.032878042074643e-06</v>
+        <v>0.0001198925436045606</v>
       </c>
       <c r="X10" t="n">
-        <v>16.08534534534565</v>
+        <v>15.07563563563582</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.215855855855997</v>
+        <v>3.172562562562604</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.9548348348353</v>
+        <v>26.97870870870903</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4895275894535767</v>
+        <v>0.321493783464086</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4895275894535767</v>
+        <v>0.321493783464086</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.538408009504867</v>
+        <v>3.821404387170607</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-5.710140866696143, 14.786956885705877]</t>
+          <t>[-3.1181230310589148, 10.76093180540013]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3771837026959259</v>
+        <v>0.2732747938117215</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3771837026959259</v>
+        <v>0.2732747938117215</v>
       </c>
       <c r="P11" t="n">
-        <v>2.044079304137503</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 5.169948270772392]</t>
+          <t>[-0.7421580242714629, 5.509579908998316]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1944829485704491</v>
+        <v>0.1315634699638366</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1944829485704491</v>
+        <v>0.1315634699638366</v>
       </c>
       <c r="T11" t="n">
-        <v>13.17527163013316</v>
+        <v>11.41459524814949</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.710125533876648, 18.64041772638967]</t>
+          <t>[7.852937667326312, 14.976252828972658]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.485673553602851e-05</v>
+        <v>6.579197386891167e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.485673553602851e-05</v>
+        <v>6.579197386891167e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>16.88710710710743</v>
+        <v>14.78938938938957</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.434744744744828</v>
+        <v>2.934024024024056</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.33946946947002</v>
+        <v>26.64475475475508</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1194584660384148</v>
+        <v>0.07263388635024381</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1194584660384148</v>
+        <v>0.07263388635024381</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.138747496983511</v>
+        <v>7.840191811202647</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.2967168582472883, 13.57421185221431]</t>
+          <t>[-0.6479551586151047, 16.3283387810204]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1032929623548693</v>
+        <v>0.06937821474322381</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1032929623548693</v>
+        <v>0.06937821474322381</v>
       </c>
       <c r="P12" t="n">
-        <v>1.452868674633118</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.1698158191129604, 3.075553168379196]</t>
+          <t>[0.3333421634439615, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.07803499052242402</v>
+        <v>0.01848489107443241</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07803499052242402</v>
+        <v>0.01848489107443241</v>
       </c>
       <c r="T12" t="n">
-        <v>12.53987418312434</v>
+        <v>12.95272155945509</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.3224879620157, 16.757260404232976]</t>
+          <t>[8.23864366783124, 17.66679945107893]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.2454814258287e-07</v>
+        <v>1.526470681190162e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.2454814258287e-07</v>
+        <v>1.526470681190162e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>19.24228228228264</v>
+        <v>16.64998998999019</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.77807807807832</v>
+        <v>10.73423423423436</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.70648648648697</v>
+        <v>22.56574574574602</v>
       </c>
     </row>
   </sheetData>
